--- a/maf-test.xlsx
+++ b/maf-test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t xml:space="preserve">dtime</t>
   </si>
@@ -61,6 +61,9 @@
     <t xml:space="preserve">garmin_weight</t>
   </si>
   <si>
+    <t xml:space="preserve">note</t>
+  </si>
+  <si>
     <t xml:space="preserve">2020-06-02 06:13:00</t>
   </si>
   <si>
@@ -101,6 +104,36 @@
   </si>
   <si>
     <t xml:space="preserve">00:50:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-15 06:39:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M8070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:51:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changed low RPM 60 --&gt; 55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-17 05:54:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:58:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changed high RPM 80 --&gt; 75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-19 08:44:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:58:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siang, stress</t>
   </si>
 </sst>
 </file>
@@ -212,18 +245,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="16.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.19"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="12.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="12.78"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -266,19 +299,22 @@
       <c r="M1" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>114</v>
@@ -307,16 +343,16 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>116</v>
@@ -348,16 +384,16 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>122</v>
@@ -389,16 +425,16 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>23</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>22</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>122</v>
@@ -430,16 +466,16 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>120</v>
@@ -467,6 +503,138 @@
       </c>
       <c r="M6" s="0" t="n">
         <v>83.7</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>117</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>118</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>132</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>82.8</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>362</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>82.8</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>124</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>127</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>133</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>431</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>113</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>135</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>396</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>82.7</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/maf-test.xlsx
+++ b/maf-test.xlsx
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="52">
   <si>
     <t xml:space="preserve">dtime</t>
   </si>
   <si>
-    <t xml:space="preserve">activity</t>
+    <t xml:space="preserve">type</t>
   </si>
   <si>
     <t xml:space="preserve">title</t>
@@ -64,16 +64,31 @@
     <t xml:space="preserve">note</t>
   </si>
   <si>
+    <t xml:space="preserve">2020-05-14 15:36:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ftp test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FTP Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:20:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puasa</t>
+  </si>
+  <si>
     <t xml:space="preserve">2020-06-02 06:13:00</t>
   </si>
   <si>
-    <t xml:space="preserve">bike</t>
+    <t xml:space="preserve">maf</t>
   </si>
   <si>
     <t xml:space="preserve">M6065</t>
   </si>
   <si>
-    <t xml:space="preserve">00:35:28</t>
+    <t xml:space="preserve">0:35:28</t>
   </si>
   <si>
     <t xml:space="preserve">2020-06-06 06:00:00</t>
@@ -82,7 +97,7 @@
     <t xml:space="preserve">M6070</t>
   </si>
   <si>
-    <t xml:space="preserve">00:38:32</t>
+    <t xml:space="preserve">0:38:32</t>
   </si>
   <si>
     <t xml:space="preserve">2020-06-08 07:00:00</t>
@@ -91,7 +106,7 @@
     <t xml:space="preserve">M7070</t>
   </si>
   <si>
-    <t xml:space="preserve">00:44:11</t>
+    <t xml:space="preserve">0:44:11</t>
   </si>
   <si>
     <t xml:space="preserve">2020-06-10 06:00:00</t>
@@ -103,7 +118,7 @@
     <t xml:space="preserve">2020-06-12 06:00:00</t>
   </si>
   <si>
-    <t xml:space="preserve">00:50:25</t>
+    <t xml:space="preserve">0:50:25</t>
   </si>
   <si>
     <t xml:space="preserve">2020-06-15 06:39:00</t>
@@ -112,7 +127,7 @@
     <t xml:space="preserve">M8070</t>
   </si>
   <si>
-    <t xml:space="preserve">00:51:24</t>
+    <t xml:space="preserve">0:51:24</t>
   </si>
   <si>
     <t xml:space="preserve">Changed low RPM 60 --&gt; 55</t>
@@ -121,7 +136,7 @@
     <t xml:space="preserve">2020-06-17 05:54:00</t>
   </si>
   <si>
-    <t xml:space="preserve">00:58:25</t>
+    <t xml:space="preserve">0:58:25</t>
   </si>
   <si>
     <t xml:space="preserve">Changed high RPM 80 --&gt; 75</t>
@@ -130,10 +145,37 @@
     <t xml:space="preserve">2020-06-19 08:44:00</t>
   </si>
   <si>
-    <t xml:space="preserve">00:58:10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siang, stress</t>
+    <t xml:space="preserve">0:58:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kesiangan, stress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-22 06:32:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M9075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:09:43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cape karena long ride Sabtu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-24 07:10:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:00:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duration kepotong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-26 05:40:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:09:19</t>
   </si>
 </sst>
 </file>
@@ -245,13 +287,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="16.2"/>
@@ -313,219 +355,222 @@
       <c r="C2" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="0" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>82.8</v>
+        <v>82.2</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>31.3</v>
+        <v>33</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>220</v>
+        <v>177</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>82.2</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>84.1</v>
+        <v>82.8</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>32</v>
+        <v>31.3</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>267</v>
-      </c>
-      <c r="M3" s="0" t="n">
-        <v>83.3</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>127</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>83.5</v>
+        <v>84.1</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>31.6</v>
+        <v>32</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>313</v>
+        <v>267</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>84.1</v>
+        <v>83.3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>122</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>67</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>82.6</v>
+        <v>83.5</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>31.3</v>
+        <v>31.6</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>83.3</v>
+        <v>84.1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>28</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>128</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>83.7</v>
+        <v>82.6</v>
       </c>
       <c r="K6" s="1" t="n">
-        <v>31</v>
+        <v>31.3</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>362</v>
+        <v>316</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>83.7</v>
+        <v>83.3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>128</v>
@@ -534,107 +579,277 @@
         <v>132</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>82.8</v>
+        <v>83.7</v>
       </c>
       <c r="K7" s="1" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L7" s="0" t="n">
         <v>362</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>82.8</v>
-      </c>
-      <c r="N7" s="0" t="s">
-        <v>31</v>
+        <v>83.7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>117</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>118</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>132</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>82.8</v>
+      </c>
+      <c r="K8" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>123</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>124</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>63</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>127</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>133</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>83.3</v>
-      </c>
-      <c r="K8" s="1" t="n">
-        <v>31</v>
-      </c>
       <c r="L8" s="0" t="n">
-        <v>431</v>
+        <v>362</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>83.3</v>
+        <v>82.8</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E9" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>124</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>127</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>133</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>431</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="0" t="n">
         <v>113</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F10" s="0" t="n">
         <v>116</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G10" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H10" s="0" t="n">
         <v>128</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="I10" s="0" t="n">
         <v>135</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="J10" s="0" t="n">
         <v>82.5</v>
       </c>
-      <c r="K9" s="1" t="n">
+      <c r="K10" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="L9" s="0" t="n">
+      <c r="L10" s="0" t="n">
         <v>396</v>
       </c>
-      <c r="M9" s="0" t="n">
+      <c r="M10" s="0" t="n">
         <v>82.7</v>
       </c>
-      <c r="N9" s="0" t="s">
-        <v>37</v>
+      <c r="N10" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>117</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>118</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>136</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>490</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>119</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>126</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>135</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>82.9</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>434</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>82.9</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>122</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>127</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>134</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>83.2</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>508</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>83.2</v>
       </c>
     </row>
   </sheetData>
